--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H2">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I2">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J2">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>168.6259643685005</v>
+        <v>198.4880768676883</v>
       </c>
       <c r="R2">
-        <v>1517.633679316505</v>
+        <v>1786.392691809195</v>
       </c>
       <c r="S2">
-        <v>0.03510212970105624</v>
+        <v>0.04040313370568381</v>
       </c>
       <c r="T2">
-        <v>0.03510212970105624</v>
+        <v>0.04040313370568381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H3">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I3">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J3">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>70.26242632849066</v>
+        <v>89.450051946752</v>
       </c>
       <c r="R3">
-        <v>632.3618369564159</v>
+        <v>805.0504675207682</v>
       </c>
       <c r="S3">
-        <v>0.01462622207279904</v>
+        <v>0.01820795720235684</v>
       </c>
       <c r="T3">
-        <v>0.01462622207279905</v>
+        <v>0.01820795720235684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H4">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I4">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J4">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>5.849037265854777</v>
+        <v>18.460888151257</v>
       </c>
       <c r="R4">
-        <v>52.64133539269299</v>
+        <v>166.147993361313</v>
       </c>
       <c r="S4">
-        <v>0.001217568513255</v>
+        <v>0.003757796156179753</v>
       </c>
       <c r="T4">
-        <v>0.001217568513255</v>
+        <v>0.003757796156179754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H5">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I5">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J5">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>6.77755198082611</v>
+        <v>11.98109764959567</v>
       </c>
       <c r="R5">
-        <v>60.997967827435</v>
+        <v>107.829878846361</v>
       </c>
       <c r="S5">
-        <v>0.00141085336162531</v>
+        <v>0.0024388058865629</v>
       </c>
       <c r="T5">
-        <v>0.001410853361625311</v>
+        <v>0.002438805886562901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H6">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I6">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J6">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>5.481241901945999</v>
+        <v>9.076110510708668</v>
       </c>
       <c r="R6">
-        <v>49.331177117514</v>
+        <v>81.684994596378</v>
       </c>
       <c r="S6">
-        <v>0.001141006160501542</v>
+        <v>0.001847482792309827</v>
       </c>
       <c r="T6">
-        <v>0.001141006160501542</v>
+        <v>0.001847482792309827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H7">
         <v>1317.896057</v>
       </c>
       <c r="I7">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J7">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>2903.842653855611</v>
+        <v>2684.884474287725</v>
       </c>
       <c r="R7">
-        <v>26134.5838847005</v>
+        <v>24163.96026858953</v>
       </c>
       <c r="S7">
-        <v>0.6044802284679465</v>
+        <v>0.5465202147697393</v>
       </c>
       <c r="T7">
-        <v>0.6044802284679466</v>
+        <v>0.5465202147697393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H8">
         <v>1317.896057</v>
       </c>
       <c r="I8">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J8">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>1209.962127126443</v>
       </c>
       <c r="R8">
-        <v>10889.65914413799</v>
+        <v>10889.65914413798</v>
       </c>
       <c r="S8">
-        <v>0.2518725255556916</v>
+        <v>0.246293189860924</v>
       </c>
       <c r="T8">
-        <v>0.2518725255556917</v>
+        <v>0.2462931898609241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H9">
         <v>1317.896057</v>
       </c>
       <c r="I9">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J9">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>100.7240134115008</v>
+        <v>249.7145055816743</v>
       </c>
       <c r="R9">
-        <v>906.5161207035071</v>
+        <v>2247.430550235069</v>
       </c>
       <c r="S9">
-        <v>0.02096727746537879</v>
+        <v>0.05083050184415148</v>
       </c>
       <c r="T9">
-        <v>0.0209672774653788</v>
+        <v>0.05083050184415148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H10">
         <v>1317.896057</v>
       </c>
       <c r="I10">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J10">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>116.7136069723961</v>
+        <v>162.0644603542992</v>
       </c>
       <c r="R10">
-        <v>1050.422462751565</v>
+        <v>1458.580143188693</v>
       </c>
       <c r="S10">
-        <v>0.02429576124392178</v>
+        <v>0.03298894404120337</v>
       </c>
       <c r="T10">
-        <v>0.02429576124392178</v>
+        <v>0.03298894404120337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H11">
         <v>1317.896057</v>
       </c>
       <c r="I11">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J11">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>94.390351394454</v>
+        <v>122.7696322201016</v>
       </c>
       <c r="R11">
-        <v>849.5131625500861</v>
+        <v>1104.926689980914</v>
       </c>
       <c r="S11">
-        <v>0.01964882673664535</v>
+        <v>0.02499030643988202</v>
       </c>
       <c r="T11">
-        <v>0.01964882673664535</v>
+        <v>0.02499030643988202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H12">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I12">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J12">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>0.431849560695</v>
+        <v>2.141064769365555</v>
       </c>
       <c r="R12">
-        <v>3.886646046255</v>
+        <v>19.26958292429</v>
       </c>
       <c r="S12">
-        <v>8.989623482735576E-05</v>
+        <v>0.0004358232872943301</v>
       </c>
       <c r="T12">
-        <v>8.989623482735577E-05</v>
+        <v>0.0004358232872943301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H13">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I13">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J13">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.179941434624</v>
+        <v>0.9648859410773334</v>
       </c>
       <c r="R13">
-        <v>1.619472911616</v>
+        <v>8.683973469696001</v>
       </c>
       <c r="S13">
-        <v>3.745762166828962E-05</v>
+        <v>0.0001964068386539357</v>
       </c>
       <c r="T13">
-        <v>3.745762166828964E-05</v>
+        <v>0.0001964068386539357</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H14">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I14">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J14">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.014979331227</v>
+        <v>0.1991351715206667</v>
       </c>
       <c r="R14">
-        <v>0.134813981043</v>
+        <v>1.792216543686</v>
       </c>
       <c r="S14">
-        <v>3.118181885775219E-06</v>
+        <v>4.053485270965172E-05</v>
       </c>
       <c r="T14">
-        <v>3.11818188577522E-06</v>
+        <v>4.053485270965172E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H15">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I15">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J15">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.017357248965</v>
+        <v>0.1292385239491111</v>
       </c>
       <c r="R15">
-        <v>0.156215240685</v>
+        <v>1.163146715542</v>
       </c>
       <c r="S15">
-        <v>3.613182624067871E-06</v>
+        <v>2.630707821569499E-05</v>
       </c>
       <c r="T15">
-        <v>3.613182624067872E-06</v>
+        <v>2.630707821569499E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H16">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I16">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J16">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.014037410646</v>
+        <v>0.0979028099017778</v>
       </c>
       <c r="R16">
-        <v>0.126336695814</v>
+        <v>0.8811252891160001</v>
       </c>
       <c r="S16">
-        <v>2.922106396889639E-06</v>
+        <v>1.992855380054114E-05</v>
       </c>
       <c r="T16">
-        <v>2.922106396889639E-06</v>
+        <v>1.992855380054114E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H17">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I17">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J17">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>77.63560147289112</v>
+        <v>90.56892746052777</v>
       </c>
       <c r="R17">
-        <v>698.72041325602</v>
+        <v>815.1203471447499</v>
       </c>
       <c r="S17">
-        <v>0.01616106370407807</v>
+        <v>0.01843570930563926</v>
       </c>
       <c r="T17">
-        <v>0.01616106370407808</v>
+        <v>0.01843570930563926</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H18">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I18">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J18">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>32.34890753262933</v>
+        <v>40.81552602026667</v>
       </c>
       <c r="R18">
-        <v>291.140167793664</v>
+        <v>367.3397341824</v>
       </c>
       <c r="S18">
-        <v>0.006733930638441733</v>
+        <v>0.008308182441426547</v>
       </c>
       <c r="T18">
-        <v>0.006733930638441736</v>
+        <v>0.008308182441426547</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H19">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I19">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J19">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>2.692903953863556</v>
+        <v>8.423593327183335</v>
       </c>
       <c r="R19">
-        <v>24.236135584772</v>
+        <v>75.81233994465001</v>
       </c>
       <c r="S19">
-        <v>0.0005605700416006833</v>
+        <v>0.001714660008053601</v>
       </c>
       <c r="T19">
-        <v>0.0005605700416006834</v>
+        <v>0.001714660008053601</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H20">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I20">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J20">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>3.120393271082222</v>
+        <v>5.466903509005556</v>
       </c>
       <c r="R20">
-        <v>28.08353943974</v>
+        <v>49.20213158105</v>
       </c>
       <c r="S20">
-        <v>0.0006495586236083346</v>
+        <v>0.001112812602732111</v>
       </c>
       <c r="T20">
-        <v>0.0006495586236083348</v>
+        <v>0.001112812602732111</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H21">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I21">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J21">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>2.523570515784</v>
+        <v>4.141375176988889</v>
       </c>
       <c r="R21">
-        <v>22.712134642056</v>
+        <v>37.2723765929</v>
       </c>
       <c r="S21">
-        <v>0.0005253206401905605</v>
+        <v>0.0008429953962061922</v>
       </c>
       <c r="T21">
-        <v>0.0005253206401905606</v>
+        <v>0.0008429953962061921</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H22">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I22">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J22">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>1.481920456800556</v>
+        <v>1.751880646735555</v>
       </c>
       <c r="R22">
-        <v>13.337284111205</v>
+        <v>15.76692582062</v>
       </c>
       <c r="S22">
-        <v>0.0003084849019311448</v>
+        <v>0.0003566031225827194</v>
       </c>
       <c r="T22">
-        <v>0.0003084849019311448</v>
+        <v>0.0003566031225827193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H23">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I23">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J23">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>0.6174809870506666</v>
+        <v>0.7894973709653333</v>
       </c>
       <c r="R23">
-        <v>5.557328883455999</v>
+        <v>7.105476338688</v>
       </c>
       <c r="S23">
-        <v>0.0001285383171954604</v>
+        <v>0.0001607057126190076</v>
       </c>
       <c r="T23">
-        <v>0.0001285383171954604</v>
+        <v>0.0001607057126190076</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H24">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I24">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J24">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>0.05140257023477778</v>
+        <v>0.1629381128786667</v>
       </c>
       <c r="R24">
-        <v>0.4626231321129999</v>
+        <v>1.466443015908</v>
       </c>
       <c r="S24">
-        <v>1.070024829275861E-05</v>
+        <v>3.31667799108E-05</v>
       </c>
       <c r="T24">
-        <v>1.070024829275861E-05</v>
+        <v>3.31667799108E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H25">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I25">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J25">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>0.0595625529261111</v>
+        <v>0.1057466696751111</v>
       </c>
       <c r="R25">
-        <v>0.5360629763349999</v>
+        <v>0.951720027076</v>
       </c>
       <c r="S25">
-        <v>1.239887621083896E-05</v>
+        <v>2.152520645692149E-05</v>
       </c>
       <c r="T25">
-        <v>1.239887621083896E-05</v>
+        <v>2.152520645692149E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H26">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I26">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J26">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>0.048170307186</v>
+        <v>0.08010688904977779</v>
       </c>
       <c r="R26">
-        <v>0.4335327646739999</v>
+        <v>0.720962001448</v>
       </c>
       <c r="S26">
-        <v>1.002740222666772E-05</v>
+        <v>1.630611470522756E-05</v>
       </c>
       <c r="T26">
-        <v>1.002740222666772E-05</v>
+        <v>1.630611470522755E-05</v>
       </c>
     </row>
   </sheetData>
